--- a/Azure/AzureConfig.xlsx
+++ b/Azure/AzureConfig.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymond\Documents\GitHub\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raymond\Documents\GitHub\Ontwikkeling\Azure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="0" windowWidth="20700" windowHeight="9945"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="20700" windowHeight="9945"/>
   </bookViews>
   <sheets>
     <sheet name="AzureConfig" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>AZURE Config</t>
   </si>
@@ -59,9 +59,6 @@
     <t>RDS</t>
   </si>
   <si>
-    <t>Ormer</t>
-  </si>
-  <si>
     <t>Aantal</t>
   </si>
   <si>
@@ -78,6 +75,18 @@
   </si>
   <si>
     <t>Domain (J/N)</t>
+  </si>
+  <si>
+    <t>DC-01</t>
+  </si>
+  <si>
+    <t>DataDrive (GB)</t>
+  </si>
+  <si>
+    <t>olaf</t>
+  </si>
+  <si>
+    <t>Olaf</t>
   </si>
 </sst>
 </file>
@@ -396,18 +405,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,23 +426,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -439,23 +450,26 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
       <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -464,63 +478,80 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>8</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
       <c r="B12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
